--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/5.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/5.xlsx
@@ -479,13 +479,13 @@
         <v>-20.8623371870639</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.159220674276549</v>
+        <v>-9.181778712072843</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.936776441175192</v>
+        <v>-2.916116787290948</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.748034261167663</v>
+        <v>-5.76158479460885</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.34439274423509</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.438924632187184</v>
+        <v>-9.462281300456823</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.946517114489436</v>
+        <v>-2.917046340792711</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.692117035730651</v>
+        <v>-5.704253600464932</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.70224819042827</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.26451215708359</v>
+        <v>-10.28875910194646</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.796701893071564</v>
+        <v>-2.766262288964551</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.567884174065513</v>
+        <v>-5.580636077033354</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.04009631355727</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.01794800101924</v>
+        <v>-11.04239133042474</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.7311356404402</v>
+        <v>-2.704545173368655</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.795061812975144</v>
+        <v>-5.808874192473165</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.40024748723</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.8318179148723</v>
+        <v>-11.85961287380528</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.568817269808481</v>
+        <v>-2.539123926963446</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.332131076794552</v>
+        <v>-5.343521380266853</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.83907631001492</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.5202242905931</v>
+        <v>-12.55042823324896</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.537971804313374</v>
+        <v>-2.510373229923015</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.431108886278</v>
+        <v>-5.438479852777892</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.38372807256722</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.05541144615718</v>
+        <v>-13.08968709499682</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.423099939180069</v>
+        <v>-2.397412841004603</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.963975520885215</v>
+        <v>-4.971045364419746</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-17.05282008766601</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.03448003726714</v>
+        <v>-14.06790468642206</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.189782010237669</v>
+        <v>-2.165168480895224</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.821478896755868</v>
+        <v>-4.824450849500939</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.84363476654766</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.79768273912272</v>
+        <v>-14.83499580222163</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.171544432379145</v>
+        <v>-2.146433395528714</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.424795212954409</v>
+        <v>-4.424101320903798</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.7368059871092</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.46947498253736</v>
+        <v>-15.50385536979974</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.985594455118109</v>
+        <v>-1.958990895743722</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.196583282120282</v>
+        <v>-4.193179283381434</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-16.69793691702906</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.12484947818849</v>
+        <v>-16.16005468052989</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.030802176830589</v>
+        <v>-2.009226061747425</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.676098782647462</v>
+        <v>-3.673519598987643</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.68058432915624</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.09679585655255</v>
+        <v>-17.13027287491884</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.835412649220669</v>
+        <v>-1.81159775035157</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.036827819491662</v>
+        <v>-3.032062221257274</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-16.64191312835867</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.70511661579051</v>
+        <v>-17.73746769611241</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.574849638064637</v>
+        <v>-1.552632000142228</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.695236546048188</v>
+        <v>-2.688742763838691</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-16.5412981934817</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.60823675811561</v>
+        <v>-18.64210654556716</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.432614859992125</v>
+        <v>-1.412544359735759</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.119502528583284</v>
+        <v>-2.114854761074471</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-16.34703097637443</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.50456199526586</v>
+        <v>-19.5368607063764</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.269890627972312</v>
+        <v>-1.248929851122709</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.715919201184236</v>
+        <v>-1.707919804147941</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-16.04431770495041</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.30210580747529</v>
+        <v>-20.33530788748191</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.053553415815631</v>
+        <v>-1.034189899912718</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.206628620641092</v>
+        <v>-1.199886084677603</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-15.63388208141423</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.26069803694079</v>
+        <v>-21.29116382565348</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9706267696161376</v>
+        <v>-0.9527034070258146</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.8419294326819704</v>
+        <v>-0.8335503588632657</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-15.13330536886183</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.09698197325888</v>
+        <v>-22.12636110083572</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8387087261829057</v>
+        <v>-0.8216101786716115</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.4705138933650435</v>
+        <v>-0.4638106343100798</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-14.57084209113179</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.74916194701662</v>
+        <v>-22.77943135118669</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5988708304253259</v>
+        <v>-0.5837361283402905</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1125965182779363</v>
+        <v>-0.1030784141120014</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.97829932708485</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.36929196341782</v>
+        <v>-23.39910313698843</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3104473988221006</v>
+        <v>-0.296281527147353</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2355147219807182</v>
+        <v>0.2476251021093148</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.3849436978754</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.02143266026704</v>
+        <v>-24.05343024841222</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1097031193499148</v>
+        <v>-0.09975296919020299</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3154694154351392</v>
+        <v>0.3346234544925845</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.81526005065415</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.47798744496371</v>
+        <v>-24.50647629594731</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.02650153479074564</v>
+        <v>-0.01856759926865964</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5573628027388701</v>
+        <v>0.5764906571906319</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.28733849822976</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.86606948579815</v>
+        <v>-24.89260758365833</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.05712443113754292</v>
+        <v>-0.0498843876660684</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5418222392657412</v>
+        <v>0.5656109535291575</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.81391080197307</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.14238253727278</v>
+        <v>-25.17081901904501</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2390496437479842</v>
+        <v>0.2443520263988833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5197224320689077</v>
+        <v>0.5407879473412449</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.40008645438332</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.14505336705249</v>
+        <v>-25.17483835601742</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2361300602142793</v>
+        <v>0.2423358117612574</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3753012394218274</v>
+        <v>0.4008835991745601</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.04238357754726</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.10759628862232</v>
+        <v>-25.13392490963703</v>
       </c>
       <c r="F27" t="n">
-        <v>0.04028230200489903</v>
+        <v>0.04576797689558226</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3716615792318275</v>
+        <v>0.3956859549463949</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.7339634627413</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.18990759658825</v>
+        <v>-25.21441638750796</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2035171338355397</v>
+        <v>0.2131137918185249</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07563151967755942</v>
+        <v>0.100074849083062</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.46379872123126</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.24380860738763</v>
+        <v>-25.26819956758177</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1619228877073759</v>
+        <v>0.1721217916210805</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01461372381045837</v>
+        <v>0.009633221052418307</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.22712243922646</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.02711790305423</v>
+        <v>-25.05467720053606</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03220435115155405</v>
+        <v>0.04097619405551051</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1941091957705228</v>
+        <v>-0.1689326974058835</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.02250045218047</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.56397769002817</v>
+        <v>-24.58818535798252</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03293752011069071</v>
+        <v>0.04204976288853205</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6965525019274441</v>
+        <v>-0.6749371099357544</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.849867172105142</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.61317856410738</v>
+        <v>-24.63679707843385</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08926060693579625</v>
+        <v>0.09640900428737868</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.8226706552017913</v>
+        <v>-0.8039093852295979</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.708889577879328</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.21742443380768</v>
+        <v>-24.24100367122563</v>
       </c>
       <c r="F33" t="n">
-        <v>0.02849922944734557</v>
+        <v>0.03606658048986324</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.326174437888892</v>
+        <v>-1.312139489242562</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.595541775155539</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.61846467110155</v>
+        <v>-23.64218792385076</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.07165688729185885</v>
+        <v>-0.06012256848829819</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.393154659227163</v>
+        <v>-1.378203249381912</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.506209358172171</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.2618827109043</v>
+        <v>-23.28173064201236</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.264166108276599</v>
+        <v>-0.2511916361604484</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.485992178677843</v>
+        <v>-1.475688536341404</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.436734064659905</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.51516321832645</v>
+        <v>-22.53490641101178</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3764456974472417</v>
+        <v>-0.3637461636907675</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.671667217579202</v>
+        <v>-1.658928406914202</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.38146590927018</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.71883699028131</v>
+        <v>-21.73923479810872</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3163651197065608</v>
+        <v>-0.30407144733818</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.811466827323153</v>
+        <v>-1.801176277289556</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.333586634370578</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.33502304017327</v>
+        <v>-21.35623257077686</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3898784001628527</v>
+        <v>-0.3804126652082847</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.072789192044005</v>
+        <v>-2.063415103209329</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.286370537916254</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.68391663524855</v>
+        <v>-20.70466793525268</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2709348288457714</v>
+        <v>-0.2617702168565631</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.244193620847883</v>
+        <v>-2.238655576745832</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.234950645601577</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.32576359871029</v>
+        <v>-20.34351676136367</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5086386792401498</v>
+        <v>-0.4946822844108699</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.463240939692802</v>
+        <v>-2.457153018871399</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.178095849620762</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.76422163752581</v>
+        <v>-19.78403029172535</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2541374042998368</v>
+        <v>-0.2425245316792258</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.336900217270145</v>
+        <v>-2.333456941622771</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.11783830429019</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.2041721988653</v>
+        <v>-19.21874393192814</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01703579983617769</v>
+        <v>-0.006601234471322018</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.392228289079279</v>
+        <v>-2.396221441446006</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.055672030496915</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.30584383938027</v>
+        <v>-18.32078215692268</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0005995320916273195</v>
+        <v>0.01542001890846123</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.320521746415146</v>
+        <v>-2.325653929129102</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.992956158040604</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.97426817761071</v>
+        <v>-17.98677132682456</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03471807329716545</v>
+        <v>0.04672371500302826</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.520519764625353</v>
+        <v>-2.52747177743431</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.929093196488035</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.42708847264361</v>
+        <v>-17.43519260810264</v>
       </c>
       <c r="F45" t="n">
-        <v>0.01068060527975639</v>
+        <v>0.02339323133907241</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.577968789494847</v>
+        <v>-2.58853427788812</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.86584084377308</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.98709545104172</v>
+        <v>-16.98797263533212</v>
       </c>
       <c r="F46" t="n">
-        <v>0.07262029002396242</v>
+        <v>0.09032108346597606</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.476267781020319</v>
+        <v>-2.485144362347009</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.806592370399956</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.3394715986729</v>
+        <v>-16.34456450447833</v>
       </c>
       <c r="F47" t="n">
-        <v>0.05779980320712851</v>
+        <v>0.07227989015007755</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.817204439321707</v>
+        <v>-2.828463819765592</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.753413932738811</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.68167502699606</v>
+        <v>-15.68772367090894</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07339273589162426</v>
+        <v>0.09271697488601194</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.727574534067251</v>
+        <v>-2.736765330662143</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.708037971497738</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.10109685747972</v>
+        <v>-15.10239299546105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1771099590037782</v>
+        <v>0.1913936614041013</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.971588874431341</v>
+        <v>-2.986867591847636</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.668384381373127</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.41851655652349</v>
+        <v>-14.42490560031025</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3032542968838088</v>
+        <v>0.3177081992210744</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.932298873603322</v>
+        <v>-2.951020866666989</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.631008882647054</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.61034179440658</v>
+        <v>-13.61632497680525</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3098659098188805</v>
+        <v>0.3234688124714339</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.038137049775835</v>
+        <v>-3.058600319117453</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-8.593248041835944</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.00746743315078</v>
+        <v>-13.01106781643225</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3861809430833018</v>
+        <v>0.4004777377864666</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.01352352043339</v>
+        <v>-3.03013765273954</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.554128353176342</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.3705268999008</v>
+        <v>-12.37429748311922</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4438656294039468</v>
+        <v>0.4583588086497375</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.056636473691194</v>
+        <v>-3.076130912622524</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.513342965507764</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.99168802487262</v>
+        <v>-11.99538005427398</v>
       </c>
       <c r="F54" t="n">
-        <v>0.341575467301541</v>
+        <v>0.3576920920997058</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.194236576557735</v>
+        <v>-3.214241615299892</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.471553500086065</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.48107512174246</v>
+        <v>-11.48197849063854</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1171995812000397</v>
+        <v>0.1336827904777728</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.660270188511816</v>
+        <v>-3.678848166244225</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.432108039724497</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.06636333692794</v>
+        <v>-11.06971496645543</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1634285025341744</v>
+        <v>0.1767564668270516</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.75086892417656</v>
+        <v>-3.7707430398903</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.400537652004672</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.30242746611323</v>
+        <v>-10.3058707417606</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1173697811369821</v>
+        <v>0.1339839134431325</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.132836859583918</v>
+        <v>-4.154504620786975</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.383739992289852</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.01681887962097</v>
+        <v>-10.02061564744507</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0520969868463201</v>
+        <v>-0.03303459390876695</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.155840035676831</v>
+        <v>-4.177088843188953</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.386442919525692</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.430584835277005</v>
+        <v>-9.430768127516789</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01443809619533177</v>
+        <v>0.03267567405385619</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.444184913463006</v>
+        <v>-4.465708659334804</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.411828818448823</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.092580852812164</v>
+        <v>-9.097935604674429</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1034580908944115</v>
+        <v>-0.0854430821841964</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.354005131489197</v>
+        <v>-4.376144215594556</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.460259918119826</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.551083207278372</v>
+        <v>-8.555704790181503</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1286738661675759</v>
+        <v>-0.1106719497602025</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.742702510557202</v>
+        <v>-4.763938225766482</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.532105266292467</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.065267125730443</v>
+        <v>-8.071093200495012</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09044434186973575</v>
+        <v>-0.07324105593570771</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.74109215730767</v>
+        <v>-4.766150824946734</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.627985820927448</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.608371941159887</v>
+        <v>-7.614394400467082</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.102908214175059</v>
+        <v>-0.08313883688405262</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.725865809102742</v>
+        <v>-4.748999908224072</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.743122234604263</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.266806852322096</v>
+        <v>-7.277778202103462</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.264166108276599</v>
+        <v>-0.2441741618372832</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.925876919615791</v>
+        <v>-4.946222358231834</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.869906692322491</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.895574605244954</v>
+        <v>-6.903901309852291</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2116266969727522</v>
+        <v>-0.1939782727421055</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.187592053421896</v>
+        <v>-5.205384492983801</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.99989545582434</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.647933696993705</v>
+        <v>-6.656299678509567</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3204237335874959</v>
+        <v>-0.2999342796401946</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.159980386728695</v>
+        <v>-5.176673072851896</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.128637230454759</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.491886539423172</v>
+        <v>-6.50256985854202</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4000118425623486</v>
+        <v>-0.3815647878583566</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.252124014128763</v>
+        <v>-5.265177040061964</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.254004044066589</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.218859655961817</v>
+        <v>-6.230590359308003</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3523820448241492</v>
+        <v>-0.3336600517604809</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.248968769143907</v>
+        <v>-5.265700732175633</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.373117300162527</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.087255827796786</v>
+        <v>-6.09873777738898</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6242829902411162</v>
+        <v>-0.6053907972405055</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.301953318744372</v>
+        <v>-5.314404098746854</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.480887461490756</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.894785883720571</v>
+        <v>-5.910234801073807</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5585465376728096</v>
+        <v>-0.5386855142619111</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.142030839532689</v>
+        <v>-5.152491589503228</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.571442003502193</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.790047460986762</v>
+        <v>-5.807041270075323</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6292842499266555</v>
+        <v>-0.6078914270832751</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.081910984883483</v>
+        <v>-5.090015120342511</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.641353772434494</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.801673425910215</v>
+        <v>-5.823170987176329</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7514616200456432</v>
+        <v>-0.7323468578967232</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.939872591353597</v>
+        <v>-4.94565938920964</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.690794099704474</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.850350607875753</v>
+        <v>-5.872306399741327</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7885521139962531</v>
+        <v>-0.7688874751279806</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.746329078444361</v>
+        <v>-4.750688815290655</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.722737086440828</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.077973385082002</v>
+        <v>-6.09927456180549</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6724495723958264</v>
+        <v>-0.6506116112558273</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.605521361381596</v>
+        <v>-4.607105530025446</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.738815762871781</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.28010544865541</v>
+        <v>-6.304718977997855</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.009288339907755</v>
+        <v>-0.9894665934053815</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.436028408792611</v>
+        <v>-4.436735393146064</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.74078913639962</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.760147824650139</v>
+        <v>-6.780021940363879</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9393230735215705</v>
+        <v>-0.9215830031710317</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.251623323266899</v>
+        <v>-4.253155122699381</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.72922235803245</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.207812935717278</v>
+        <v>-7.224846021714364</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9976885595899854</v>
+        <v>-0.9796735508797703</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.170791445522082</v>
+        <v>-4.168958523124241</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.705158592346283</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.798694747570059</v>
+        <v>-7.815793295081353</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.056263522503868</v>
+        <v>-1.036114468430451</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.801797982230875</v>
+        <v>-3.803971304502601</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.670780715484833</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.219874129988387</v>
+        <v>-8.23825572317817</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.035616960922466</v>
+        <v>-1.015742845208726</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.631820614436745</v>
+        <v>-3.634124859736889</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.624654249303374</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.685213849891856</v>
+        <v>-8.703503796961748</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.209155435089545</v>
+        <v>-1.188103012120049</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.264476781303595</v>
+        <v>-3.264306581366653</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.563418096146988</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.582979240354696</v>
+        <v>-9.596137004710631</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.157977623281238</v>
+        <v>-1.140106629902282</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.260850213416437</v>
+        <v>-3.261884505340933</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.480341521587112</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.36325430511589</v>
+        <v>-10.37361031666369</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.242357515096162</v>
+        <v>-1.223766445060911</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.063234994323424</v>
+        <v>-3.061768656405151</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.370753194484163</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.17362857411021</v>
+        <v>-11.18096026370157</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.362466301366157</v>
+        <v>-1.342395801109791</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.714586969648259</v>
+        <v>-2.71497973873351</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.23165568364289</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.36752876255005</v>
+        <v>-12.37389162173113</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.43765539658619</v>
+        <v>-1.41899886503673</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.568136470060711</v>
+        <v>-2.563645810185998</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.061092409833233</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.24814323629023</v>
+        <v>-13.25124611206371</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.517256597863884</v>
+        <v>-1.497906174263813</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.235683624000761</v>
+        <v>-2.230355056744178</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.856980414544383</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.40535879216755</v>
+        <v>-14.40864496018082</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.698179130833697</v>
+        <v>-1.673735801428194</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.978865011457462</v>
+        <v>-1.972410506156491</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.617497514646914</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.47311464272736</v>
+        <v>-15.47219818152844</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.743426129454702</v>
+        <v>-1.719008984654883</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.564834026390717</v>
+        <v>-1.560133889670537</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.344958289040706</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.86146171297252</v>
+        <v>-16.85701033000633</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.717503369828085</v>
+        <v>-1.691344948750316</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.256117525382816</v>
+        <v>-1.250461650555191</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.046233275921701</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.50966481002026</v>
+        <v>-18.50234621273173</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.952614944259801</v>
+        <v>-1.927320615169587</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.063202443009983</v>
+        <v>-1.056643199286278</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.730179261094221</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.08935588629724</v>
+        <v>-20.07771682907094</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.165220850106591</v>
+        <v>-2.137504444990657</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.7702621669263618</v>
+        <v>-0.7616212470508227</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.405252520793294</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.86399135188752</v>
+        <v>-21.84991712633267</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.351550504150036</v>
+        <v>-2.321333469191333</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.9115281145885862</v>
+        <v>-0.9016957951544499</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.080302905803287</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53945262345174</v>
+        <v>-23.52101866105059</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.444977177228594</v>
+        <v>-2.414485203910214</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.7159029255275152</v>
+        <v>-0.7045780835694222</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.763921569598038</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.62514811225859</v>
+        <v>-25.60423970462035</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.597083551643767</v>
+        <v>-2.567468762615783</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.7047875604148898</v>
+        <v>-0.6946279334097104</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.46606296864399</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.84479095143914</v>
+        <v>-27.81792554600792</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.462874355213233</v>
+        <v>-2.432591858740321</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.8226968398074748</v>
+        <v>-0.8102984290163602</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.196423734174266</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.12304803044211</v>
+        <v>-30.09580294822847</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.935951626096163</v>
+        <v>-2.906376113976703</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.174735770918647</v>
+        <v>-1.161433991231453</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.963952053754406</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.32598509119662</v>
+        <v>-32.29800684002385</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.98834702206875</v>
+        <v>-2.957724125721954</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.421695879422126</v>
+        <v>-1.407883499924105</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.771444733151909</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.54933305208138</v>
+        <v>-34.52071327806937</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.320996252671327</v>
+        <v>-3.291826601939961</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.613917069744348</v>
+        <v>-1.597420768163773</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.622425035636745</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.06611879655775</v>
+        <v>-37.03820600689919</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.579006264773222</v>
+        <v>-3.550504321486784</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.033171883644942</v>
+        <v>-2.015497274808612</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.512346989196925</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.56947183831851</v>
+        <v>-39.53943809559959</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.516425057189771</v>
+        <v>-3.493107665828657</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.491310836985462</v>
+        <v>-2.471161782912046</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.447564416483204</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.13311493466541</v>
+        <v>-42.10211236153621</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.691613161514908</v>
+        <v>-3.666633047692895</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.814311040393686</v>
+        <v>-2.793140786698615</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.408278712175957</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.42517130086355</v>
+        <v>-44.3960671116464</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.931791457146373</v>
+        <v>-3.911812603009899</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.378275077603878</v>
+        <v>-3.352535610217044</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.405283587022461</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.75980383590299</v>
+        <v>-46.73464042984119</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.078294325945287</v>
+        <v>-4.058066718054821</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.690290838927894</v>
+        <v>-3.669055123718614</v>
       </c>
     </row>
   </sheetData>
